--- a/Ranking.xlsx
+++ b/Ranking.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmori\Documents\ProyectoIEM\ProyectoIEM-ERP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="8085"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Ranking" sheetId="1" r:id="rId4"/>
+    <sheet name="Ranking" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>timestamp</t>
   </si>
@@ -70,9 +78,6 @@
     <t>Pauline1</t>
   </si>
   <si>
-    <t>1012.36</t>
-  </si>
-  <si>
     <t>185.124.30.8</t>
   </si>
   <si>
@@ -89,9 +94,6 @@
   </si>
   <si>
     <t>Captain Toad1</t>
-  </si>
-  <si>
-    <t>1024.28</t>
   </si>
   <si>
     <t>Pauline2</t>
@@ -112,15 +114,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -131,42 +134,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -356,20 +364,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,10 +414,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -413,16 +426,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="2">
-        <v>499681.0</v>
+        <v>499.68099999999998</v>
       </c>
       <c r="F2" s="2">
         <v>26.683681</v>
       </c>
       <c r="G2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -431,10 +444,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -443,16 +456,16 @@
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>122269.0</v>
+        <v>122.26900000000001</v>
       </c>
       <c r="F3" s="2">
-        <v>92.009926</v>
+        <v>92.009925999999993</v>
       </c>
       <c r="G3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -461,10 +474,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -473,16 +486,16 @@
         <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>564123.0</v>
+        <v>564.12300000000005</v>
       </c>
       <c r="F4" s="2">
-        <v>31.021606</v>
+        <v>31.021605999999998</v>
       </c>
       <c r="G4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
@@ -491,10 +504,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -503,16 +516,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>217764.0</v>
+        <v>217.76400000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>45.921238</v>
+        <v>45.921238000000002</v>
       </c>
       <c r="G5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -521,10 +534,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -532,167 +545,167 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
+      <c r="E6" s="3">
+        <v>1012.36</v>
       </c>
       <c r="F6" s="2">
         <v>9.877872</v>
       </c>
       <c r="G6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>12.259017</v>
       </c>
       <c r="G7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
+      <c r="E8" s="3">
+        <v>1024.28</v>
       </c>
       <c r="F8" s="2">
         <v>13.017325</v>
       </c>
       <c r="G8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2">
-        <v>481645.0</v>
+        <v>481.64499999999998</v>
       </c>
       <c r="F9" s="2">
-        <v>36.333828</v>
+        <v>36.333827999999997</v>
       </c>
       <c r="G9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2">
-        <v>736259.0</v>
+        <v>736.25900000000001</v>
       </c>
       <c r="F10" s="2">
-        <v>18.10958</v>
+        <v>18.109580000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2">
-        <v>321649.0</v>
+        <v>321.649</v>
       </c>
       <c r="F11" s="2">
-        <v>41.45307</v>
+        <v>41.453069999999997</v>
       </c>
       <c r="G11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>
@@ -702,6 +715,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>